--- a/biology/Botanique/Bolet_craquelé/Bolet_craquelé.xlsx
+++ b/biology/Botanique/Bolet_craquelé/Bolet_craquelé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bolet_craquel%C3%A9</t>
+          <t>Bolet_craquelé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leccinellum crocipodium
-Leccinellum crocipodium, le Bolet craquelé, anciennement Leccinum crocipodium, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinellum dans la famille des Boletaceae. Comestible moyen, il est caractérisé par son chapeau jaunâtre parfois craquelé et sa tendance plus au moins thermophile. Ses basides contiennent un pigment biologique benzotropolone appelé crocipodine[1].
+Leccinellum crocipodium, le Bolet craquelé, anciennement Leccinum crocipodium, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinellum dans la famille des Boletaceae. Comestible moyen, il est caractérisé par son chapeau jaunâtre parfois craquelé et sa tendance plus au moins thermophile. Ses basides contiennent un pigment biologique benzotropolone appelé crocipodine.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolet_craquel%C3%A9</t>
+          <t>Bolet_craquelé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinellum crocipodium (Letell.) Bresinsky &amp; Manfr. Binder (2003). L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus crocipodius Letell[2].
-Synonymes
-Leccinellum crocipodium a pour synonymes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinellum crocipodium (Letell.) Bresinsky &amp; Manfr. Binder (2003). L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus crocipodius Letell.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_craquelé</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leccinellum crocipodium a pour synonymes :
 Boletus crocipodius Letell. (1838)
 Boletus tessellatus Gillet (1878)
 Boletus nigrescens Richon &amp; Roze (1888)
@@ -526,114 +575,82 @@
 Leccinum nigrescens Singer (1947)
 Leccinum crocipodium (Letell.) Watling (1961)
 Krombholziella nigrescens (Singer) Šutara (1982)
-Leccinellum nigrescens (Singer) Bresinsky &amp; Manfr. Binder (2003)
-Noms vulgaires et vernaculaires
-Nom vernaculaire normalisé par la Société Mycologique de France : Bolet craquelé[3]. 
-On le connait aussi sous le nom de Bolet rude à pied jaune safran[4].
+Leccinellum nigrescens (Singer) Bresinsky &amp; Manfr. Binder (2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_craquelé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom vernaculaire normalisé par la Société Mycologique de France : Bolet craquelé. 
+On le connait aussi sous le nom de Bolet rude à pied jaune safran.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolet_craquel%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_craquelé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques du Bolet craquelé les suivantes :
 Son chapeau est brun jaune à ochracé olivâtre, parfois à l'aspect cabossé et parfois craquelé.
 Son hyménophore présente des pores jaunes caractéristiques. 
-Son stipe est fusoïde, blanchâtre à plus ou moins jaune recouvert de squamules[5], formant parfois un pseudo-réseau trompeur vers le haut du stipe[4]. 
+Son stipe est fusoïde, blanchâtre à plus ou moins jaune recouvert de squamules, formant parfois un pseudo-réseau trompeur vers le haut du stipe. 
 Sa chair est pâle, devenant noirâtre à la coupe, de saveur douce et d'odeur indistincte.
-Leccinellum crocipodium possède une cuticule typiquement craquelée à maturité[6], d'où son nom vernaculaire, cependant ce critère n'est pas forcément présent ni nécessaire, encore moins sur les jeunes spécimens.
-Réactions chimiques
-Leccinellum crocipodium se caractérise par les réactions suivantes avec ces réactifs :
-Rouge orangé (chair) au Formol (CH2O)
-Vert clair (chair) au Sulfate de fer II (FeSO4 10 %)
-Caractéristiques microscopiques
-Ses spores mesurent 14-18 × 6-7 µm[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bolet_craquel%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un champignon mycorhizien, préférant s'établir sous les chênes. Sa tendance thermophile le rend particulièrement visible durant l'été et la fin de l'été entre juin et septembre[7].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bolet_craquel%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme toutes les espèces de Leccinum au sens large, le Bolet craquelé est un comestible moyen, au pied fibreux souvent rejeté.
+Leccinellum crocipodium possède une cuticule typiquement craquelée à maturité, d'où son nom vernaculaire, cependant ce critère n'est pas forcément présent ni nécessaire, encore moins sur les jeunes spécimens.
 </t>
         </is>
       </c>
@@ -644,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bolet_craquel%C3%A9</t>
+          <t>Bolet_craquelé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,12 +676,155 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Leccinellum crocipodium se caractérise par les réactions suivantes avec ces réactifs :
+Rouge orangé (chair) au Formol (CH2O)
+Vert clair (chair) au Sulfate de fer II (FeSO4 10 %)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_craquelé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 14-18 × 6-7 µm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_craquelé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un champignon mycorhizien, préférant s'établir sous les chênes. Sa tendance thermophile le rend particulièrement visible durant l'été et la fin de l'été entre juin et septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bolet_craquelé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les espèces de Leccinum au sens large, le Bolet craquelé est un comestible moyen, au pied fibreux souvent rejeté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bolet_craquelé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_craquel%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bolet craquelé pourrait être confondu avec le Bolet des chênes verts (Leccinellum lepidum) et le Bolet de Corse (Leccinellum corsicum)[8] qui ont un chapeau plus marron sombre et qui sortent plutôt vers l'automne et la fin de l'automne.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet craquelé pourrait être confondu avec le Bolet des chênes verts (Leccinellum lepidum) et le Bolet de Corse (Leccinellum corsicum) qui ont un chapeau plus marron sombre et qui sortent plutôt vers l'automne et la fin de l'automne.
 On pourrait aussi se laisser tromper par le pseudo-réseau occasionnel du Bolet craquelé formé par ses squamules, pouvant faire penser à un Butyriboletus avec son stipe et ses pores jaunes.
 </t>
         </is>
